--- a/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
+++ b/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
@@ -16,7 +16,7 @@
     <sheet name="REQUISITOS_MODULO_GP" sheetId="3" r:id="rId2"/>
     <sheet name="REQUISITOS_MODULO_GT" sheetId="4" r:id="rId3"/>
     <sheet name="REQUISITOS_MODULO_COLABORACIÓN" sheetId="7" r:id="rId4"/>
-    <sheet name="REQUISITOS_MODULO_AUTO._PERSO." sheetId="6" r:id="rId5"/>
+    <sheet name="REQUISITOS_MODULO_PERSONALIZA." sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="141">
   <si>
     <t>MODULO</t>
   </si>
@@ -300,12 +300,6 @@
     <t>El sistema debe permitir al Administrador y Lider de proyecto Eliminar Miembros de Proyecto</t>
   </si>
   <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Configurar Reglas de Automatización</t>
-  </si>
-  <si>
-    <t>Configurar Reglas de Automatización</t>
-  </si>
-  <si>
     <t>El sistema debe permitir al Administrador y Lider de proyecto Actualizar Usuario</t>
   </si>
   <si>
@@ -327,30 +321,9 @@
     <t>El sistema debe permitir al Miembro de proyecto y cliente/StakeHolder Cancelar Cuenta</t>
   </si>
   <si>
-    <t>Visualizar Reglas de Automatización</t>
-  </si>
-  <si>
-    <t>AUTOMATIZACIÓN Y PERSONALIZACIÓN</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Editar Reglas de Automatización</t>
-  </si>
-  <si>
-    <t>Eliminar Reglas de Automatización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar Reglas de Automatización </t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Eliminar Reglas de Automatización</t>
-  </si>
-  <si>
     <t>Agregar Campos Personalizados</t>
   </si>
   <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Agregar Campos Personalizados</t>
-  </si>
-  <si>
     <t>Crear Etiquetas Personalizadas</t>
   </si>
   <si>
@@ -397,9 +370,6 @@
   </si>
   <si>
     <t>El sistema deberá permitir al Administrador y Lider de proyecto Utilizar Plantillas de Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Visualizar Reglas de Automatización</t>
   </si>
   <si>
     <t>El sistema debe permitir al Administrador, Lider de Proyecto y Miembro de Proyecto Cambiar Estado de Tarea</t>
@@ -447,6 +417,42 @@
   </si>
   <si>
     <t>Notificar Eventos Importantes</t>
+  </si>
+  <si>
+    <t>PERSONALIZACIÓN</t>
+  </si>
+  <si>
+    <t>Editar Etiquetas Personalizadas</t>
+  </si>
+  <si>
+    <t>Eliminar Etiquetas Personalizadas</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Agregar Campos Personalizados a formularios de creacion de  proyectos o tareas</t>
+  </si>
+  <si>
+    <t>Visualizar Etiquetas Personalizadas</t>
+  </si>
+  <si>
+    <t>Editar Campos Personalizados</t>
+  </si>
+  <si>
+    <t>Eliminar Campos Personalizados</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Editar Campos Personalizados</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Editar Etiquetas Personalizadas</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Eliminar Etiquetas Personalizadas</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Eliminar Campos Personalizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sitema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Visualizar Etiquetas Personalizadas </t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -935,10 +941,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1006,7 +1012,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1023,7 +1029,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1037,10 +1043,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1068,13 +1074,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1085,7 +1091,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1110,7 +1116,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1201,7 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1345,10 +1351,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1401,7 +1407,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1560,7 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1606,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1655,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1672,10 +1678,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1689,10 +1695,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
         <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1706,10 +1712,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1723,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1740,10 +1746,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1757,10 +1763,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1774,10 +1780,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1791,10 +1797,10 @@
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1810,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1856,15 +1862,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
+      <c r="B4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1878,10 +1884,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1895,10 +1901,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1912,10 +1918,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1929,10 +1935,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1946,10 +1952,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1963,15 +1969,32 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
     </row>
